--- a/Hurtige noter/Sandhedstabeller.xlsx
+++ b/Hurtige noter/Sandhedstabeller.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dtudk-my.sharepoint.com/personal/s183710_dtu_dk/Documents/DTU/7. semester/Matematik 1a/Hurtige noter/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="570" documentId="8_{4E93AD26-C269-4369-B039-D09B4FADF16E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4CC24E4-33A5-45C3-8C0B-5275C1E0CF0F}"/>
+  <xr:revisionPtr revIDLastSave="623" documentId="8_{4E93AD26-C269-4369-B039-D09B4FADF16E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B705BC1F-D91E-4A89-A29B-459CB8C4B913}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{DB513554-B88A-4EA7-A302-DA11CBEB3DD6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="51">
   <si>
     <t>P</t>
   </si>
@@ -177,6 +177,18 @@
   </si>
   <si>
     <t>P⇒(P⇒P)</t>
+  </si>
+  <si>
+    <t>Hjem1</t>
+  </si>
+  <si>
+    <t>Q⇒R</t>
+  </si>
+  <si>
+    <t>(P∧Q)⇒R</t>
+  </si>
+  <si>
+    <t>¬P∨(Q⇒R)</t>
   </si>
 </sst>
 </file>
@@ -684,10 +696,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A9C3378-B068-4CC6-8FEB-776BB3B78530}">
-  <dimension ref="B1:AF97"/>
+  <dimension ref="B1:AF113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C64" workbookViewId="0">
-      <selection activeCell="H95" sqref="H95:L97"/>
+    <sheetView tabSelected="1" topLeftCell="C88" workbookViewId="0">
+      <selection activeCell="R120" sqref="R120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2916,7 +2928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="8:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="7:15" x14ac:dyDescent="0.25">
       <c r="H97" s="5">
         <v>0</v>
       </c>
@@ -2930,11 +2942,500 @@
         <v>0</v>
       </c>
       <c r="L97" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G103" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="105" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="H105" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I105" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="J105" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K105" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L105" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M105" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N105" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O105" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="106" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="H106" s="3">
+        <v>1</v>
+      </c>
+      <c r="I106" s="3">
+        <v>1</v>
+      </c>
+      <c r="J106" s="3">
+        <v>1</v>
+      </c>
+      <c r="K106" s="3">
+        <v>0</v>
+      </c>
+      <c r="L106" s="3">
+        <v>1</v>
+      </c>
+      <c r="M106" s="3">
+        <v>1</v>
+      </c>
+      <c r="N106" s="3">
+        <v>1</v>
+      </c>
+      <c r="O106" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="H107" s="6">
+        <v>0</v>
+      </c>
+      <c r="I107" s="6">
+        <v>1</v>
+      </c>
+      <c r="J107" s="6">
+        <v>1</v>
+      </c>
+      <c r="K107" s="6">
+        <v>1</v>
+      </c>
+      <c r="L107" s="6">
+        <v>0</v>
+      </c>
+      <c r="M107" s="6">
+        <v>1</v>
+      </c>
+      <c r="N107" s="6">
+        <v>0</v>
+      </c>
+      <c r="O107" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="H108" s="6">
+        <v>1</v>
+      </c>
+      <c r="I108" s="6">
+        <v>0</v>
+      </c>
+      <c r="J108" s="6">
+        <v>1</v>
+      </c>
+      <c r="K108" s="6">
+        <v>0</v>
+      </c>
+      <c r="L108" s="6">
+        <v>0</v>
+      </c>
+      <c r="M108" s="6">
+        <v>0</v>
+      </c>
+      <c r="N108" s="6">
+        <v>0</v>
+      </c>
+      <c r="O108" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="H109" s="6">
+        <v>0</v>
+      </c>
+      <c r="I109" s="6">
+        <v>0</v>
+      </c>
+      <c r="J109" s="6">
+        <v>1</v>
+      </c>
+      <c r="K109" s="6">
+        <v>1</v>
+      </c>
+      <c r="L109" s="6">
+        <v>0</v>
+      </c>
+      <c r="M109" s="6">
+        <v>0</v>
+      </c>
+      <c r="N109" s="6">
+        <v>0</v>
+      </c>
+      <c r="O109" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="H110" s="6">
+        <v>1</v>
+      </c>
+      <c r="I110" s="6">
+        <v>1</v>
+      </c>
+      <c r="J110" s="6">
+        <v>0</v>
+      </c>
+      <c r="K110" s="6">
+        <v>0</v>
+      </c>
+      <c r="L110" s="6">
+        <v>1</v>
+      </c>
+      <c r="M110" s="6">
+        <v>1</v>
+      </c>
+      <c r="N110" s="6">
+        <v>1</v>
+      </c>
+      <c r="O110" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="H111" s="6">
+        <v>0</v>
+      </c>
+      <c r="I111" s="6">
+        <v>1</v>
+      </c>
+      <c r="J111" s="6">
+        <v>0</v>
+      </c>
+      <c r="K111" s="6">
+        <v>1</v>
+      </c>
+      <c r="L111" s="6">
+        <v>0</v>
+      </c>
+      <c r="M111" s="6">
+        <v>1</v>
+      </c>
+      <c r="N111" s="6">
+        <v>1</v>
+      </c>
+      <c r="O111" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="H112" s="6">
+        <v>1</v>
+      </c>
+      <c r="I112" s="6">
+        <v>0</v>
+      </c>
+      <c r="J112" s="6">
+        <v>0</v>
+      </c>
+      <c r="K112" s="6">
+        <v>0</v>
+      </c>
+      <c r="L112" s="6">
+        <v>0</v>
+      </c>
+      <c r="M112" s="6">
+        <v>1</v>
+      </c>
+      <c r="N112" s="6">
+        <v>1</v>
+      </c>
+      <c r="O112" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="8:15" x14ac:dyDescent="0.25">
+      <c r="H113" s="6">
+        <v>0</v>
+      </c>
+      <c r="I113" s="6">
+        <v>0</v>
+      </c>
+      <c r="J113" s="6">
+        <v>0</v>
+      </c>
+      <c r="K113" s="6">
+        <v>1</v>
+      </c>
+      <c r="L113" s="6">
+        <v>0</v>
+      </c>
+      <c r="M113" s="6">
+        <v>1</v>
+      </c>
+      <c r="N113" s="6">
+        <v>1</v>
+      </c>
+      <c r="O113" s="6">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B3:C6">
+    <cfRule type="colorScale" priority="112">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9:D16">
+    <cfRule type="colorScale" priority="111">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H96:H97">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:I6">
+    <cfRule type="colorScale" priority="105">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H31:I34">
+    <cfRule type="colorScale" priority="79">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H37:I40">
+    <cfRule type="colorScale" priority="78">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H43:I46">
+    <cfRule type="colorScale" priority="76">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H49:I52">
+    <cfRule type="colorScale" priority="75">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H55:I58">
+    <cfRule type="colorScale" priority="63">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H62:I65">
+    <cfRule type="colorScale" priority="60">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H68:I69">
+    <cfRule type="colorScale" priority="55">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H72:I75">
+    <cfRule type="colorScale" priority="53">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H84:I87">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H90:I93">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:J6">
+    <cfRule type="colorScale" priority="100">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9:J9">
+    <cfRule type="colorScale" priority="99">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H78:J79">
+    <cfRule type="colorScale" priority="43">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H84:J87">
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H90:J93">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H78:K79">
+    <cfRule type="colorScale" priority="40">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H15:L18">
     <cfRule type="colorScale" priority="106">
       <colorScale>
         <cfvo type="min"/>
@@ -2946,55 +3447,555 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B9:D16">
-    <cfRule type="colorScale" priority="105">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3:I6">
-    <cfRule type="colorScale" priority="99">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H31:I34">
-    <cfRule type="colorScale" priority="73">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H37:I40">
-    <cfRule type="colorScale" priority="72">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H43:I46">
+  <conditionalFormatting sqref="H21:L28">
+    <cfRule type="colorScale" priority="108">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H78:L79">
+    <cfRule type="colorScale" priority="39">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I96:I97">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J31:J34">
+    <cfRule type="colorScale" priority="109">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J49:J52">
+    <cfRule type="colorScale" priority="95">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J55:J58">
+    <cfRule type="colorScale" priority="84">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J62:J65">
+    <cfRule type="colorScale" priority="58">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J68:J69">
+    <cfRule type="colorScale" priority="54">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J72:J75">
+    <cfRule type="colorScale" priority="52">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J96:J97">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J43:K46">
+    <cfRule type="colorScale" priority="77">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J37:L40">
+    <cfRule type="colorScale" priority="110">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K62:K65">
+    <cfRule type="colorScale" priority="57">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K72:K75">
+    <cfRule type="colorScale" priority="51">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K78:K79">
+    <cfRule type="colorScale" priority="41">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K90:K93">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K96:K97">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L43:L46">
+    <cfRule type="colorScale" priority="114">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L62:L65">
+    <cfRule type="colorScale" priority="56">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L72:L75">
+    <cfRule type="colorScale" priority="49">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L96:L97">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L3:M6">
+    <cfRule type="colorScale" priority="104">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L49:M52">
+    <cfRule type="colorScale" priority="74">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L55:M58">
+    <cfRule type="colorScale" priority="64">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L84:M87">
+    <cfRule type="colorScale" priority="37">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L3:N6">
+    <cfRule type="colorScale" priority="101">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L9:N9">
+    <cfRule type="colorScale" priority="98">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L84:N87">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M90:N93">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M31:O34">
+    <cfRule type="colorScale" priority="80">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M90:O93">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N49:N52">
+    <cfRule type="colorScale" priority="92">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N55:O58">
+    <cfRule type="colorScale" priority="65">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N72:O75">
+    <cfRule type="colorScale" priority="48">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N21:R28">
+    <cfRule type="colorScale" priority="107">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P55:P58">
+    <cfRule type="colorScale" priority="82">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P72:P75">
+    <cfRule type="colorScale" priority="47">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P90:P93">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P3:Q6">
+    <cfRule type="colorScale" priority="103">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P49:Q52">
     <cfRule type="colorScale" priority="70">
       <colorScale>
         <cfvo type="min"/>
@@ -3006,7 +4007,211 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H49:I52">
+  <conditionalFormatting sqref="P84:Q87">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P3:R6">
+    <cfRule type="colorScale" priority="102">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P9:R9">
+    <cfRule type="colorScale" priority="97">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P42:R45">
+    <cfRule type="colorScale" priority="94">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P84:R87">
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q72:Q75">
+    <cfRule type="colorScale" priority="46">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q15:R18">
+    <cfRule type="colorScale" priority="62">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R72:R75">
+    <cfRule type="colorScale" priority="45">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R49:S52">
+    <cfRule type="colorScale" priority="71">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R90:S93">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R90:T93">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S15:S18">
+    <cfRule type="colorScale" priority="81">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S72:S75">
+    <cfRule type="colorScale" priority="44">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T49:T52">
+    <cfRule type="colorScale" priority="87">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T42:V45">
+    <cfRule type="colorScale" priority="93">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U90:U93">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V49:W52">
+    <cfRule type="colorScale" priority="68">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X49:Y52">
     <cfRule type="colorScale" priority="69">
       <colorScale>
         <cfvo type="min"/>
@@ -3018,487 +4223,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H55:I58">
-    <cfRule type="colorScale" priority="57">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H62:I65">
-    <cfRule type="colorScale" priority="54">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H68:I69">
-    <cfRule type="colorScale" priority="49">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H72:I75">
-    <cfRule type="colorScale" priority="47">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H84:I87">
-    <cfRule type="colorScale" priority="32">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H90:I93">
-    <cfRule type="colorScale" priority="26">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3:J6">
-    <cfRule type="colorScale" priority="94">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H9:J9">
-    <cfRule type="colorScale" priority="93">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H78:J79">
-    <cfRule type="colorScale" priority="37">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H84:J87">
-    <cfRule type="colorScale" priority="27">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H90:J93">
-    <cfRule type="colorScale" priority="21">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H78:K79">
-    <cfRule type="colorScale" priority="34">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H15:L18">
-    <cfRule type="colorScale" priority="100">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H21:L28">
-    <cfRule type="colorScale" priority="102">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H78:L79">
-    <cfRule type="colorScale" priority="33">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J31:J34">
-    <cfRule type="colorScale" priority="103">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J49:J52">
-    <cfRule type="colorScale" priority="89">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J55:J58">
-    <cfRule type="colorScale" priority="78">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J62:J65">
-    <cfRule type="colorScale" priority="52">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J68:J69">
-    <cfRule type="colorScale" priority="48">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J72:J75">
-    <cfRule type="colorScale" priority="46">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J43:K46">
-    <cfRule type="colorScale" priority="71">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J37:L40">
-    <cfRule type="colorScale" priority="104">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K62:K65">
-    <cfRule type="colorScale" priority="51">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K72:K75">
-    <cfRule type="colorScale" priority="45">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K78:K79">
-    <cfRule type="colorScale" priority="35">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K90:K93">
-    <cfRule type="colorScale" priority="19">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L43:L46">
-    <cfRule type="colorScale" priority="108">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L62:L65">
-    <cfRule type="colorScale" priority="50">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L72:L75">
-    <cfRule type="colorScale" priority="43">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L3:M6">
-    <cfRule type="colorScale" priority="98">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L49:M52">
-    <cfRule type="colorScale" priority="68">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L55:M58">
-    <cfRule type="colorScale" priority="58">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L84:M87">
-    <cfRule type="colorScale" priority="31">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L3:N6">
-    <cfRule type="colorScale" priority="95">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L9:N9">
-    <cfRule type="colorScale" priority="92">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L84:N87">
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M90:N93">
-    <cfRule type="colorScale" priority="25">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M31:O34">
-    <cfRule type="colorScale" priority="74">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M90:O93">
-    <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N49:N52">
+  <conditionalFormatting sqref="X42:Z45">
+    <cfRule type="colorScale" priority="91">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z49:Z52">
     <cfRule type="colorScale" priority="86">
       <colorScale>
         <cfvo type="min"/>
@@ -3510,319 +4247,31 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N55:O58">
-    <cfRule type="colorScale" priority="59">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N72:O75">
-    <cfRule type="colorScale" priority="42">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N21:R28">
-    <cfRule type="colorScale" priority="101">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P55:P58">
-    <cfRule type="colorScale" priority="76">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P72:P75">
-    <cfRule type="colorScale" priority="41">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P90:P93">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P3:Q6">
-    <cfRule type="colorScale" priority="97">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P49:Q52">
-    <cfRule type="colorScale" priority="64">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P84:Q87">
-    <cfRule type="colorScale" priority="30">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P3:R6">
-    <cfRule type="colorScale" priority="96">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P9:R9">
-    <cfRule type="colorScale" priority="91">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P42:R45">
-    <cfRule type="colorScale" priority="88">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P84:R87">
-    <cfRule type="colorScale" priority="29">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q72:Q75">
-    <cfRule type="colorScale" priority="40">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q15:R18">
-    <cfRule type="colorScale" priority="56">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R72:R75">
-    <cfRule type="colorScale" priority="39">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R49:S52">
-    <cfRule type="colorScale" priority="65">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R90:S93">
-    <cfRule type="colorScale" priority="24">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R90:T93">
-    <cfRule type="colorScale" priority="23">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S15:S18">
-    <cfRule type="colorScale" priority="75">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S72:S75">
-    <cfRule type="colorScale" priority="38">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T49:T52">
-    <cfRule type="colorScale" priority="81">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T42:V45">
-    <cfRule type="colorScale" priority="87">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U90:U93">
-    <cfRule type="colorScale" priority="17">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V49:W52">
-    <cfRule type="colorScale" priority="62">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X49:Y52">
-    <cfRule type="colorScale" priority="63">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X42:Z45">
+  <conditionalFormatting sqref="AB49:AC52">
+    <cfRule type="colorScale" priority="66">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD49:AE52">
+    <cfRule type="colorScale" priority="67">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF49:AF53">
     <cfRule type="colorScale" priority="85">
       <colorScale>
         <cfvo type="min"/>
@@ -3834,151 +4283,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z49:Z52">
-    <cfRule type="colorScale" priority="80">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB49:AC52">
-    <cfRule type="colorScale" priority="60">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD49:AE52">
-    <cfRule type="colorScale" priority="61">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF49:AF53">
-    <cfRule type="colorScale" priority="79">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H96:H97">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H96:H97">
-    <cfRule type="colorScale" priority="15">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I96:I97">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I96:I97">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I96:I97">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J96:J97">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J96:J97">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J96:J97">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K96:K97">
+  <conditionalFormatting sqref="H106:J113">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K106:K113">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -3990,7 +4307,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K96:K97">
+  <conditionalFormatting sqref="L106:L113">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -4002,19 +4319,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K96:K97">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L96:L97">
+  <conditionalFormatting sqref="M106:M113">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N106:N113">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -4026,7 +4343,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L96:L97">
+  <conditionalFormatting sqref="O106:O113">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -4038,18 +4355,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L96:L97">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Hurtige noter/Sandhedstabeller.xlsx
+++ b/Hurtige noter/Sandhedstabeller.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dtudk-my.sharepoint.com/personal/s183710_dtu_dk/Documents/DTU/7. semester/Matematik 1a/Hurtige noter/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="623" documentId="8_{4E93AD26-C269-4369-B039-D09B4FADF16E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B705BC1F-D91E-4A89-A29B-459CB8C4B913}"/>
+  <xr:revisionPtr revIDLastSave="635" documentId="8_{4E93AD26-C269-4369-B039-D09B4FADF16E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{17BC146C-9FDF-4140-9BF8-DD6D9F2216AB}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{DB513554-B88A-4EA7-A302-DA11CBEB3DD6}"/>
   </bookViews>
@@ -698,8 +698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A9C3378-B068-4CC6-8FEB-776BB3B78530}">
   <dimension ref="B1:AF113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C88" workbookViewId="0">
-      <selection activeCell="R120" sqref="R120"/>
+    <sheetView tabSelected="1" topLeftCell="C99" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="Q112" sqref="Q112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3022,7 +3022,7 @@
         <v>1</v>
       </c>
       <c r="N107" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O107" s="6">
         <v>1</v>
@@ -3045,13 +3045,13 @@
         <v>0</v>
       </c>
       <c r="M108" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N108" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O108" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="7:15" x14ac:dyDescent="0.25">
@@ -3071,10 +3071,10 @@
         <v>0</v>
       </c>
       <c r="M109" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N109" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O109" s="6">
         <v>1</v>
@@ -3097,13 +3097,13 @@
         <v>1</v>
       </c>
       <c r="M110" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N110" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O110" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="7:15" x14ac:dyDescent="0.25">
@@ -3123,7 +3123,7 @@
         <v>0</v>
       </c>
       <c r="M111" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N111" s="6">
         <v>1</v>
@@ -3210,17 +3210,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H96:H97">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="21">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3423,6 +3423,18 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="H106:J113">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="H78:K79">
     <cfRule type="colorScale" priority="40">
       <colorScale>
@@ -3472,27 +3484,27 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I96:I97">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="17">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3576,27 +3588,27 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J96:J97">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3711,6 +3723,18 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="K106:K113">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="L43:L46">
     <cfRule type="colorScale" priority="114">
       <colorScale>
@@ -3748,6 +3772,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L96:L97">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -3758,17 +3792,19 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
     <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L106:L113">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3863,6 +3899,18 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="M106:M113">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="M90:N93">
     <cfRule type="colorScale" priority="31">
       <colorScale>
@@ -3911,6 +3959,18 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="N106:N113">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="N55:O58">
     <cfRule type="colorScale" priority="65">
       <colorScale>
@@ -3947,6 +4007,18 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="O106:O113">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="P55:P58">
     <cfRule type="colorScale" priority="82">
       <colorScale>
@@ -4273,78 +4345,6 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="AF49:AF53">
     <cfRule type="colorScale" priority="85">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H106:J113">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K106:K113">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L106:L113">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M106:M113">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N106:N113">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O106:O113">
-    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
